--- a/Rules/Classes/Sorcerer.xlsx
+++ b/Rules/Classes/Sorcerer.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\Card D&amp;D\Classes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4609CD4B-7B88-49D0-9F63-60219DB219A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Level</t>
   </si>
@@ -44,12 +38,6 @@
     <t>The Sorcerer</t>
   </si>
   <si>
-    <t>Spell Copies per Spell Level</t>
-  </si>
-  <si>
-    <t>Innate Magic, Spellcasting, Sorcerous Origin</t>
-  </si>
-  <si>
     <t>Sorcerous Origin Feature</t>
   </si>
   <si>
@@ -69,13 +57,28 @@
   </si>
   <si>
     <t>Ability Score Improvement, Additional Metamagic Copy</t>
+  </si>
+  <si>
+    <t>Initial Collection</t>
+  </si>
+  <si>
+    <t>Strike x6</t>
+  </si>
+  <si>
+    <t>Block x6</t>
+  </si>
+  <si>
+    <t>Sorcerous Origin Spells</t>
+  </si>
+  <si>
+    <t>Innate Magic, Sorcerous Origin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -210,7 +213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -387,36 +390,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -424,498 +422,160 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5">
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5">
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5">
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5">
       <c r="B15">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
         <v>3</v>
       </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
       <c r="B20">
         <v>17</v>
       </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
         <v>3</v>
       </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:3">
       <c r="B22">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>